--- a/data/venue_categories.xlsx
+++ b/data/venue_categories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\IBM-Sertificate\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9090F8A3-C3E8-44F4-81A0-567960BF3A6A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26E6E1E-A396-4B05-BE8D-8B16F88E75D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="3915" windowWidth="36105" windowHeight="15315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="382">
   <si>
     <t>Pizza Place</t>
   </si>
@@ -1141,15 +1141,9 @@
     <t>Health, Sport and Beauty</t>
   </si>
   <si>
-    <t>Culture and Education</t>
-  </si>
-  <si>
     <t>Infrastructure</t>
   </si>
   <si>
-    <t>Bar &amp; Club &amp; Nightlife</t>
-  </si>
-  <si>
     <t>Services</t>
   </si>
   <si>
@@ -1163,6 +1157,15 @@
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>Venue</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Culture, Art and Education</t>
   </si>
 </sst>
 </file>
@@ -1295,7 +1298,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="70">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -1306,6 +1309,102 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE6B8B7"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCC0DA"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDCE6F1"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEBF1DE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF4BACC6"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BBB59"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7030A0"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF1F497D"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF4F6228"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC0504D"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
@@ -1314,73 +1413,427 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE6B8B7"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCC0DA"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDCE6F1"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEBF1DE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF4BACC6"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BBB59"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7030A0"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF1F497D"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF4F6228"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC0504D"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE6B8B7"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCC0DA"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDCE6F1"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEBF1DE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF4BACC6"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BBB59"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7030A0"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF1F497D"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF4F6228"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC0504D"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE6B8B7"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCC0DA"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDCE6F1"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEBF1DE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF4BACC6"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BBB59"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7030A0"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF1F497D"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF4F6228"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC0504D"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE6B8B7"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCC0DA"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDCE6F1"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEBF1DE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF4BACC6"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BBB59"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7030A0"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF1F497D"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF4F6228"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC0504D"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF4BACC6"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF4BACC6"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1411,6 +1864,31 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{202EB900-D99B-42A6-8A7B-5BC29861C5CD}" name="Table1" displayName="Table1" ref="A1:B371" totalsRowShown="0">
+  <autoFilter ref="A1:B371" xr:uid="{62B74643-5F68-4FFB-9393-57D91A8BC19A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B371">
+    <sortCondition sortBy="cellColor" ref="A2:A371" dxfId="61"/>
+    <sortCondition sortBy="cellColor" ref="A2:A371" dxfId="60"/>
+    <sortCondition sortBy="cellColor" ref="A2:A371" dxfId="59"/>
+    <sortCondition sortBy="cellColor" ref="A2:A371" dxfId="58"/>
+    <sortCondition sortBy="cellColor" ref="A2:A371" dxfId="57"/>
+    <sortCondition sortBy="cellColor" ref="A2:A371" dxfId="56"/>
+    <sortCondition sortBy="cellColor" ref="A2:A371" dxfId="55"/>
+    <sortCondition sortBy="cellColor" ref="A2:A371" dxfId="54"/>
+    <sortCondition sortBy="cellColor" ref="A2:A371" dxfId="53"/>
+    <sortCondition sortBy="cellColor" ref="A2:A371" dxfId="52"/>
+    <sortCondition sortBy="cellColor" ref="A2:A371" dxfId="51"/>
+    <sortCondition sortBy="cellColor" ref="A2:A371" dxfId="50"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{A49CE3EC-3BF9-4FCB-B784-1ADC26519100}" name="Venue"/>
+    <tableColumn id="2" xr3:uid="{FD7FE88D-24F9-4156-A738-0326C934BA0C}" name="Type"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1698,1320 +2176,2993 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G75"/>
+  <dimension ref="A1:B371"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G13"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" customWidth="1"/>
-    <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="B109" s="12" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="B115" s="12" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B128" s="11" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="B131" s="11" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="B132" s="11" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="B133" s="11" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="B148" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B288" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B289" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B290" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B291" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B292" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B293" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B294" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B295" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B296" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B297" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B298" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B299" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B300" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B301" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B302" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B303" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B304" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B305" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B306" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B307" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B308" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B309" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B310" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="B311" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B312" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B313" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B314" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B315" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B316" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B317" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B318" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B319" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B320" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B321" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B322" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B323" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B324" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B325" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B326" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B327" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B328" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B329" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B330" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B331" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B332" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B333" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B334" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B335" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B336" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B337" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B338" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B339" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B340" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B341" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B342" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B343" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B344" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B345" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B346" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B347" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B348" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B349" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B350" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B351" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B352" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="10" t="s">
+      <c r="B353" s="10" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="B354" s="10" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B355" s="10" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B356" s="10" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B357" s="10" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B358" s="10" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="B359" s="10" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="B360" s="10" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B361" s="10" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B362" s="10" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B363" s="10" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="B364" s="10" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="B365" s="10" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="B366" s="10" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="B367" s="10" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="E9" s="10" t="s">
+      <c r="B368" s="10" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="B369" s="10" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="E13" s="10" t="s">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="G13" s="12" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="E21" s="10" t="s">
+      <c r="B370" s="10" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" s="10" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>360</v>
+      <c r="B371" s="10" t="s">
+        <v>376</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:E75">
-    <sortCondition sortBy="cellColor" ref="E2:E75" dxfId="1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A298:A371">
+    <sortCondition sortBy="cellColor" ref="A298:A371" dxfId="68"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/venue_categories.xlsx
+++ b/data/venue_categories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\IBM-Sertificate\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26E6E1E-A396-4B05-BE8D-8B16F88E75D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379D0F8C-EE5E-46A6-9ED9-621AE89DD216}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="3915" windowWidth="36105" windowHeight="15315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18450" yWindow="10215" windowWidth="24885" windowHeight="16935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="415">
   <si>
     <t>Pizza Place</t>
   </si>
@@ -1159,13 +1159,112 @@
     <t>Other</t>
   </si>
   <si>
-    <t>Venue</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>Culture, Art and Education</t>
+  </si>
+  <si>
+    <t>Boxing Gym</t>
+  </si>
+  <si>
+    <t>Opera House</t>
+  </si>
+  <si>
+    <t>Non-Profit</t>
+  </si>
+  <si>
+    <t>Colombian Restaurant</t>
+  </si>
+  <si>
+    <t>Auto Garage</t>
+  </si>
+  <si>
+    <t>Maternity Clinic</t>
+  </si>
+  <si>
+    <t>Gym Pool</t>
+  </si>
+  <si>
+    <t>Eye Doctor</t>
+  </si>
+  <si>
+    <t>River</t>
+  </si>
+  <si>
+    <t>Adult Boutique</t>
+  </si>
+  <si>
+    <t>Gaming Cafe</t>
+  </si>
+  <si>
+    <t>Spiritual Center</t>
+  </si>
+  <si>
+    <t>Financial or Legal Service</t>
+  </si>
+  <si>
+    <t>Theme Park</t>
+  </si>
+  <si>
+    <t>Piercing Parlor</t>
+  </si>
+  <si>
+    <t>Persian Restaurant</t>
+  </si>
+  <si>
+    <t>College Lab</t>
+  </si>
+  <si>
+    <t>Bay</t>
+  </si>
+  <si>
+    <t>Cha Chaan Teng</t>
+  </si>
+  <si>
+    <t>Bridge</t>
+  </si>
+  <si>
+    <t>Pop-Up Shop</t>
+  </si>
+  <si>
+    <t>North Indian Restaurant</t>
+  </si>
+  <si>
+    <t>Leather Goods Store</t>
+  </si>
+  <si>
+    <t>Stadium</t>
+  </si>
+  <si>
+    <t>ATM</t>
+  </si>
+  <si>
+    <t>Fishing Spot</t>
+  </si>
+  <si>
+    <t>Mini Golf</t>
+  </si>
+  <si>
+    <t>Soup Place</t>
+  </si>
+  <si>
+    <t>Camera Store</t>
+  </si>
+  <si>
+    <t>Cruise</t>
+  </si>
+  <si>
+    <t>Perfume Shop</t>
+  </si>
+  <si>
+    <t>Belgian Restaurant</t>
+  </si>
+  <si>
+    <t>Subcategory</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Bars and Clubs</t>
   </si>
 </sst>
 </file>
@@ -1268,7 +1367,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1276,11 +1375,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1294,19 +1419,19 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="70">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1411,448 +1536,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE6B8B7"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCC0DA"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDCE6F1"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEBF1DE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF4BACC6"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BBB59"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7030A0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF1F497D"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF4F6228"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC0504D"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE6B8B7"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCC0DA"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDCE6F1"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEBF1DE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF4BACC6"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BBB59"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7030A0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF1F497D"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF4F6228"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC0504D"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE6B8B7"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCC0DA"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDCE6F1"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEBF1DE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF4BACC6"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BBB59"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7030A0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF1F497D"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF4F6228"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC0504D"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE6B8B7"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCC0DA"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDCE6F1"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEBF1DE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF4BACC6"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BBB59"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7030A0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF1F497D"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF4F6228"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC0504D"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF4BACC6"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF4BACC6"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1867,25 +1550,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{202EB900-D99B-42A6-8A7B-5BC29861C5CD}" name="Table1" displayName="Table1" ref="A1:B371" totalsRowShown="0">
-  <autoFilter ref="A1:B371" xr:uid="{62B74643-5F68-4FFB-9393-57D91A8BC19A}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B371">
-    <sortCondition sortBy="cellColor" ref="A2:A371" dxfId="61"/>
-    <sortCondition sortBy="cellColor" ref="A2:A371" dxfId="60"/>
-    <sortCondition sortBy="cellColor" ref="A2:A371" dxfId="59"/>
-    <sortCondition sortBy="cellColor" ref="A2:A371" dxfId="58"/>
-    <sortCondition sortBy="cellColor" ref="A2:A371" dxfId="57"/>
-    <sortCondition sortBy="cellColor" ref="A2:A371" dxfId="56"/>
-    <sortCondition sortBy="cellColor" ref="A2:A371" dxfId="55"/>
-    <sortCondition sortBy="cellColor" ref="A2:A371" dxfId="54"/>
-    <sortCondition sortBy="cellColor" ref="A2:A371" dxfId="53"/>
-    <sortCondition sortBy="cellColor" ref="A2:A371" dxfId="52"/>
-    <sortCondition sortBy="cellColor" ref="A2:A371" dxfId="51"/>
-    <sortCondition sortBy="cellColor" ref="A2:A371" dxfId="50"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{202EB900-D99B-42A6-8A7B-5BC29861C5CD}" name="Table1" displayName="Table1" ref="A1:B403" totalsRowShown="0">
+  <autoFilter ref="A1:B403" xr:uid="{62B74643-5F68-4FFB-9393-57D91A8BC19A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B403">
+    <sortCondition sortBy="cellColor" ref="A2:A403" dxfId="11"/>
+    <sortCondition sortBy="cellColor" ref="A2:A403" dxfId="10"/>
+    <sortCondition sortBy="cellColor" ref="A2:A403" dxfId="9"/>
+    <sortCondition sortBy="cellColor" ref="A2:A403" dxfId="8"/>
+    <sortCondition sortBy="cellColor" ref="A2:A403" dxfId="7"/>
+    <sortCondition sortBy="cellColor" ref="A2:A403" dxfId="6"/>
+    <sortCondition sortBy="cellColor" ref="A2:A403" dxfId="5"/>
+    <sortCondition sortBy="cellColor" ref="A2:A403" dxfId="4"/>
+    <sortCondition sortBy="cellColor" ref="A2:A403" dxfId="3"/>
+    <sortCondition sortBy="cellColor" ref="A2:A403" dxfId="2"/>
+    <sortCondition sortBy="cellColor" ref="A2:A403" dxfId="1"/>
+    <sortCondition sortBy="cellColor" ref="A2:A403" dxfId="0"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{A49CE3EC-3BF9-4FCB-B784-1ADC26519100}" name="Venue"/>
-    <tableColumn id="2" xr3:uid="{FD7FE88D-24F9-4156-A738-0326C934BA0C}" name="Type"/>
+    <tableColumn id="1" xr3:uid="{A49CE3EC-3BF9-4FCB-B784-1ADC26519100}" name="Subcategory"/>
+    <tableColumn id="2" xr3:uid="{FD7FE88D-24F9-4156-A738-0326C934BA0C}" name="Category"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2176,24 +1859,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B371"/>
+  <dimension ref="A1:C403"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A344" workbookViewId="0">
+      <selection activeCell="A243" sqref="A243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>379</v>
+        <v>412</v>
       </c>
       <c r="B1" t="s">
-        <v>380</v>
+        <v>413</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2213,24 +1897,24 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>31</v>
+      <c r="A4" s="13" t="s">
+        <v>380</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>35</v>
+      <c r="A5" s="13" t="s">
+        <v>386</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>44</v>
+      <c r="A6" s="13" t="s">
+        <v>403</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>372</v>
@@ -2238,7 +1922,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>372</v>
@@ -2246,7 +1930,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>372</v>
@@ -2254,7 +1938,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>372</v>
@@ -2262,7 +1946,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>372</v>
@@ -2270,7 +1954,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>372</v>
@@ -2278,7 +1962,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>372</v>
@@ -2286,7 +1970,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>195</v>
+        <v>112</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>372</v>
@@ -2294,7 +1978,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>372</v>
@@ -2302,7 +1986,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>214</v>
+        <v>137</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>372</v>
@@ -2310,7 +1994,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>145</v>
+        <v>195</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>372</v>
@@ -2318,7 +2002,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>372</v>
@@ -2326,7 +2010,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>169</v>
+        <v>214</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>372</v>
@@ -2334,7 +2018,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>186</v>
+        <v>145</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>372</v>
@@ -2342,7 +2026,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>284</v>
+        <v>155</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>372</v>
@@ -2350,7 +2034,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>215</v>
+        <v>169</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>372</v>
@@ -2358,7 +2042,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>372</v>
@@ -2366,7 +2050,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>219</v>
+        <v>284</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>372</v>
@@ -2374,7 +2058,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>372</v>
@@ -2382,7 +2066,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>269</v>
+        <v>216</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>372</v>
@@ -2390,7 +2074,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>275</v>
+        <v>219</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>372</v>
@@ -2398,7 +2082,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>372</v>
@@ -2406,7 +2090,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>372</v>
@@ -2414,7 +2098,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>363</v>
+        <v>275</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>372</v>
@@ -2422,7 +2106,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>372</v>
@@ -2430,7 +2114,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>372</v>
@@ -2438,7 +2122,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>309</v>
+        <v>363</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>372</v>
@@ -2446,7 +2130,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>372</v>
@@ -2454,7 +2138,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>372</v>
@@ -2462,7 +2146,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>372</v>
@@ -2470,7 +2154,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>349</v>
+        <v>311</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>372</v>
@@ -2478,63 +2162,63 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>358</v>
+        <v>315</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>375</v>
+      <c r="A38" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>375</v>
+      <c r="A39" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>375</v>
+      <c r="A40" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>131</v>
+        <v>27</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
-        <v>132</v>
+      <c r="A42" s="14" t="s">
+        <v>397</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
-        <v>83</v>
+      <c r="A43" s="14" t="s">
+        <v>388</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
-        <v>87</v>
+      <c r="A44" s="14" t="s">
+        <v>399</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>375</v>
@@ -2542,7 +2226,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>181</v>
+        <v>368</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>375</v>
@@ -2550,7 +2234,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>375</v>
@@ -2558,7 +2242,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>208</v>
+        <v>131</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>375</v>
@@ -2566,7 +2250,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>251</v>
+        <v>132</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>375</v>
@@ -2574,7 +2258,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>252</v>
+        <v>83</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>375</v>
@@ -2582,7 +2266,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>260</v>
+        <v>87</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>375</v>
@@ -2590,7 +2274,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>347</v>
+        <v>181</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>375</v>
@@ -2598,7 +2282,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>354</v>
+        <v>200</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>375</v>
@@ -2606,7 +2290,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>356</v>
+        <v>208</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>375</v>
@@ -2614,7 +2298,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>316</v>
+        <v>251</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>375</v>
@@ -2622,7 +2306,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>323</v>
+        <v>252</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>375</v>
@@ -2630,7 +2314,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>325</v>
+        <v>260</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>375</v>
@@ -2638,7 +2322,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>375</v>
@@ -2646,7 +2330,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>375</v>
@@ -2654,7 +2338,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>375</v>
@@ -2662,95 +2346,95 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>355</v>
+        <v>316</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>374</v>
+      <c r="A61" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>374</v>
+      <c r="A62" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>374</v>
+      <c r="A63" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>374</v>
+      <c r="A64" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>374</v>
+      <c r="A65" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>374</v>
+      <c r="A66" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>257</v>
+        <v>15</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="8" t="s">
-        <v>222</v>
+      <c r="A68" s="15" t="s">
+        <v>384</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="8" t="s">
-        <v>225</v>
+      <c r="A69" s="15" t="s">
+        <v>392</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="8" t="s">
-        <v>237</v>
+      <c r="A70" s="15" t="s">
+        <v>394</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="8" t="s">
-        <v>240</v>
+      <c r="A71" s="15" t="s">
+        <v>404</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>374</v>
@@ -2758,7 +2442,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>245</v>
+        <v>156</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>374</v>
@@ -2766,7 +2450,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>374</v>
@@ -2774,7 +2458,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>255</v>
+        <v>184</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>374</v>
@@ -2782,7 +2466,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>279</v>
+        <v>185</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>374</v>
@@ -2790,7 +2474,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
-        <v>285</v>
+        <v>209</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>374</v>
@@ -2798,7 +2482,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>303</v>
+        <v>257</v>
       </c>
       <c r="B77" s="8" t="s">
         <v>374</v>
@@ -2806,7 +2490,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
-        <v>305</v>
+        <v>222</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>374</v>
@@ -2814,7 +2498,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>306</v>
+        <v>225</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>374</v>
@@ -2822,167 +2506,169 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>308</v>
+        <v>237</v>
       </c>
       <c r="B80" s="8" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>326</v>
+        <v>240</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
-        <v>330</v>
+        <v>245</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
-        <v>338</v>
+        <v>250</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="8" t="s">
-        <v>343</v>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="15" t="s">
+        <v>385</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="8" t="s">
-        <v>344</v>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="15" t="s">
+        <v>387</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
-        <v>352</v>
+        <v>255</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>373</v>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="C88" s="10"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="C95" s="10"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>373</v>
+      <c r="A97" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>373</v>
+      <c r="A98" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>373</v>
+      <c r="A99" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
-        <v>290</v>
+        <v>41</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>373</v>
@@ -2990,7 +2676,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
-        <v>329</v>
+        <v>47</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>373</v>
@@ -2998,399 +2684,399 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
-        <v>337</v>
+        <v>59</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="12" t="s">
+      <c r="A103" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="B103" s="12" t="s">
+      <c r="B116" s="12" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="12" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="B104" s="12" t="s">
+      <c r="B117" s="12" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="12" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="B105" s="12" t="s">
+      <c r="B118" s="12" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="12" t="s">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="B106" s="12" t="s">
+      <c r="B120" s="12" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="12" t="s">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="B107" s="12" t="s">
+      <c r="B121" s="12" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="12" t="s">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="B108" s="12" t="s">
+      <c r="B122" s="12" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="12" t="s">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="B109" s="12" t="s">
+      <c r="B123" s="12" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="12" t="s">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="B110" s="12" t="s">
+      <c r="B124" s="12" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="12" t="s">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="B111" s="12" t="s">
+      <c r="B125" s="12" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="12" t="s">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="B112" s="12" t="s">
+      <c r="B126" s="12" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="12" t="s">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="B113" s="12" t="s">
+      <c r="B127" s="12" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="12" t="s">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="B114" s="12" t="s">
+      <c r="B128" s="12" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="12" t="s">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="B115" s="12" t="s">
+      <c r="B129" s="12" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="6" t="s">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B116" s="6" t="s">
+      <c r="B130" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="16" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="B118" s="6" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="6" t="s">
+      <c r="B141" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="B125" s="6" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="6" t="s">
+      <c r="B142" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="B126" s="6" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="6" t="s">
+      <c r="B143" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="B127" s="6" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="11" t="s">
+      <c r="B144" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B128" s="11" t="s">
+      <c r="B145" s="11" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="11" t="s">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B129" s="11" t="s">
+      <c r="B146" s="11" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="11" t="s">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="B130" s="11" t="s">
+      <c r="B147" s="11" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="11" t="s">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="B131" s="11" t="s">
+      <c r="B148" s="11" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="11" t="s">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="B132" s="11" t="s">
+      <c r="B149" s="11" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="11" t="s">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="B133" s="11" t="s">
+      <c r="B150" s="11" t="s">
         <v>377</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B145" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>371</v>
@@ -3398,7 +3084,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>371</v>
@@ -3406,7 +3092,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>371</v>
@@ -3414,7 +3100,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>371</v>
@@ -3422,47 +3108,47 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="3" t="s">
-        <v>77</v>
+      <c r="A156" s="19" t="s">
+        <v>400</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="3" t="s">
-        <v>78</v>
+      <c r="A157" s="19" t="s">
+        <v>408</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="3" t="s">
-        <v>80</v>
+      <c r="A158" s="19" t="s">
+        <v>410</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="3" t="s">
-        <v>88</v>
+      <c r="A159" s="19" t="s">
+        <v>402</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="3" t="s">
-        <v>90</v>
+      <c r="A160" s="19" t="s">
+        <v>389</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>371</v>
@@ -3470,7 +3156,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>371</v>
@@ -3478,7 +3164,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>371</v>
@@ -3486,7 +3172,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>371</v>
@@ -3494,7 +3180,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>371</v>
@@ -3502,7 +3188,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>371</v>
@@ -3510,7 +3196,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>371</v>
@@ -3518,7 +3204,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>371</v>
@@ -3526,7 +3212,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>371</v>
@@ -3534,7 +3220,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>371</v>
@@ -3542,7 +3228,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>371</v>
@@ -3550,7 +3236,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>365</v>
+        <v>138</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>371</v>
@@ -3558,7 +3244,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>371</v>
@@ -3566,7 +3252,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>143</v>
+        <v>72</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>371</v>
@@ -3574,7 +3260,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>371</v>
@@ -3582,7 +3268,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>371</v>
@@ -3590,7 +3276,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>164</v>
+        <v>74</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>371</v>
@@ -3598,7 +3284,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>171</v>
+        <v>75</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>371</v>
@@ -3606,7 +3292,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>371</v>
@@ -3614,7 +3300,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>187</v>
+        <v>78</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>371</v>
@@ -3622,7 +3308,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>371</v>
@@ -3630,7 +3316,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>192</v>
+        <v>88</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>371</v>
@@ -3638,7 +3324,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>198</v>
+        <v>90</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>371</v>
@@ -3646,7 +3332,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>203</v>
+        <v>94</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>371</v>
@@ -3654,7 +3340,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>259</v>
+        <v>98</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>371</v>
@@ -3662,7 +3348,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>220</v>
+        <v>99</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>371</v>
@@ -3670,7 +3356,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>221</v>
+        <v>100</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>371</v>
@@ -3678,7 +3364,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>224</v>
+        <v>107</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>371</v>
@@ -3686,7 +3372,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>226</v>
+        <v>109</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>371</v>
@@ -3694,7 +3380,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
-        <v>229</v>
+        <v>111</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>371</v>
@@ -3702,7 +3388,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>231</v>
+        <v>117</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>371</v>
@@ -3710,7 +3396,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
-        <v>233</v>
+        <v>119</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>371</v>
@@ -3718,7 +3404,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>239</v>
+        <v>136</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>371</v>
@@ -3726,7 +3412,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
-        <v>249</v>
+        <v>365</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>371</v>
@@ -3734,7 +3420,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>253</v>
+        <v>165</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>371</v>
@@ -3742,7 +3428,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
-        <v>261</v>
+        <v>143</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>371</v>
@@ -3750,7 +3436,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>273</v>
+        <v>148</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>371</v>
@@ -3758,7 +3444,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
-        <v>274</v>
+        <v>160</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>371</v>
@@ -3766,7 +3452,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>278</v>
+        <v>164</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>371</v>
@@ -3774,7 +3460,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
-        <v>282</v>
+        <v>171</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>371</v>
@@ -3782,7 +3468,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>364</v>
+        <v>183</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>371</v>
@@ -3790,7 +3476,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
-        <v>300</v>
+        <v>187</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>371</v>
@@ -3798,7 +3484,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>324</v>
+        <v>190</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>371</v>
@@ -3806,7 +3492,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
-        <v>331</v>
+        <v>192</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>371</v>
@@ -3814,7 +3500,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
-        <v>335</v>
+        <v>198</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>371</v>
@@ -3822,7 +3508,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
-        <v>353</v>
+        <v>203</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>371</v>
@@ -3830,191 +3516,191 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="B206" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>370</v>
+      <c r="B228" s="3" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>370</v>
@@ -4022,7 +3708,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>370</v>
@@ -4030,7 +3716,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>142</v>
+        <v>7</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>370</v>
@@ -4038,7 +3724,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>370</v>
@@ -4046,7 +3732,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>370</v>
@@ -4054,7 +3740,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>370</v>
@@ -4062,7 +3748,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>370</v>
@@ -4070,7 +3756,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>370</v>
@@ -4078,7 +3764,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>370</v>
@@ -4086,7 +3772,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>370</v>
@@ -4094,7 +3780,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>121</v>
+        <v>34</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>370</v>
@@ -4102,7 +3788,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>122</v>
+        <v>36</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>370</v>
@@ -4110,7 +3796,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>370</v>
@@ -4118,7 +3804,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>370</v>
@@ -4126,7 +3812,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>370</v>
@@ -4134,7 +3820,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>213</v>
+        <v>52</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>370</v>
@@ -4142,7 +3828,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>179</v>
+        <v>54</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>370</v>
@@ -4150,7 +3836,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>180</v>
+        <v>55</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>370</v>
@@ -4158,7 +3844,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>150</v>
+        <v>56</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>370</v>
@@ -4166,7 +3852,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>152</v>
+        <v>57</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>370</v>
@@ -4174,7 +3860,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>159</v>
+        <v>60</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>370</v>
@@ -4182,7 +3868,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>161</v>
+        <v>64</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>370</v>
@@ -4190,7 +3876,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>166</v>
+        <v>93</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>370</v>
@@ -4198,7 +3884,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>173</v>
+        <v>95</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>370</v>
@@ -4206,7 +3892,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>370</v>
@@ -4214,7 +3900,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>182</v>
+        <v>71</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>370</v>
@@ -4222,7 +3908,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>189</v>
+        <v>81</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>370</v>
@@ -4230,7 +3916,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>191</v>
+        <v>92</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>370</v>
@@ -4238,7 +3924,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>196</v>
+        <v>97</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>370</v>
@@ -4246,7 +3932,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>197</v>
+        <v>106</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>370</v>
@@ -4254,7 +3940,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>201</v>
+        <v>113</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>370</v>
@@ -4262,7 +3948,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>217</v>
+        <v>120</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>370</v>
@@ -4270,7 +3956,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>218</v>
+        <v>121</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>370</v>
@@ -4278,7 +3964,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>230</v>
+        <v>122</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>370</v>
@@ -4286,7 +3972,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>232</v>
+        <v>123</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>370</v>
@@ -4294,7 +3980,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>234</v>
+        <v>129</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>370</v>
@@ -4302,7 +3988,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>243</v>
+        <v>130</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>370</v>
@@ -4310,7 +3996,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>370</v>
@@ -4318,7 +4004,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>246</v>
+        <v>179</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>370</v>
@@ -4326,7 +4012,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>256</v>
+        <v>180</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>370</v>
@@ -4334,7 +4020,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>263</v>
+        <v>150</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>370</v>
@@ -4342,7 +4028,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>265</v>
+        <v>152</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>370</v>
@@ -4350,7 +4036,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>266</v>
+        <v>159</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>370</v>
@@ -4358,7 +4044,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>267</v>
+        <v>161</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>370</v>
@@ -4366,7 +4052,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>268</v>
+        <v>166</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>370</v>
@@ -4374,7 +4060,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>270</v>
+        <v>173</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>370</v>
@@ -4382,7 +4068,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>272</v>
+        <v>176</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>370</v>
@@ -4390,7 +4076,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>276</v>
+        <v>182</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>370</v>
@@ -4398,7 +4084,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>286</v>
+        <v>189</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>370</v>
@@ -4406,7 +4092,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>289</v>
+        <v>191</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>370</v>
@@ -4414,7 +4100,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>296</v>
+        <v>196</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>370</v>
@@ -4422,7 +4108,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>301</v>
+        <v>197</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>370</v>
@@ -4430,7 +4116,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>310</v>
+        <v>201</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>370</v>
@@ -4438,7 +4124,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>313</v>
+        <v>217</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>370</v>
@@ -4446,7 +4132,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>314</v>
+        <v>218</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>370</v>
@@ -4454,7 +4140,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>328</v>
+        <v>230</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>370</v>
@@ -4462,7 +4148,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>332</v>
+        <v>232</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>370</v>
@@ -4470,7 +4156,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>346</v>
+        <v>234</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>370</v>
@@ -4478,191 +4164,191 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B287" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B288" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B289" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B290" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B291" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B292" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B293" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B294" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B295" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B296" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B297" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B298" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B299" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B300" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B301" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B302" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B303" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B304" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B305" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B306" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B307" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B308" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B309" s="4" t="s">
-        <v>63</v>
+      <c r="B309" s="1" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="4" t="s">
-        <v>207</v>
+        <v>63</v>
       </c>
       <c r="B310" s="4" t="s">
         <v>63</v>
@@ -4670,7 +4356,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="4" t="s">
-        <v>361</v>
+        <v>45</v>
       </c>
       <c r="B311" s="4" t="s">
         <v>63</v>
@@ -4678,7 +4364,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="4" t="s">
-        <v>147</v>
+        <v>53</v>
       </c>
       <c r="B312" s="4" t="s">
         <v>63</v>
@@ -4686,7 +4372,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="4" t="s">
-        <v>153</v>
+        <v>66</v>
       </c>
       <c r="B313" s="4" t="s">
         <v>63</v>
@@ -4694,7 +4380,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="4" t="s">
-        <v>157</v>
+        <v>69</v>
       </c>
       <c r="B314" s="4" t="s">
         <v>63</v>
@@ -4702,7 +4388,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="4" t="s">
-        <v>162</v>
+        <v>2</v>
       </c>
       <c r="B315" s="4" t="s">
         <v>63</v>
@@ -4710,7 +4396,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="4" t="s">
-        <v>163</v>
+        <v>3</v>
       </c>
       <c r="B316" s="4" t="s">
         <v>63</v>
@@ -4718,7 +4404,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="4" t="s">
-        <v>194</v>
+        <v>4</v>
       </c>
       <c r="B317" s="4" t="s">
         <v>63</v>
@@ -4726,7 +4412,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="4" t="s">
-        <v>202</v>
+        <v>6</v>
       </c>
       <c r="B318" s="4" t="s">
         <v>63</v>
@@ -4734,7 +4420,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="4" t="s">
-        <v>211</v>
+        <v>12</v>
       </c>
       <c r="B319" s="4" t="s">
         <v>63</v>
@@ -4742,7 +4428,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="4" t="s">
-        <v>262</v>
+        <v>13</v>
       </c>
       <c r="B320" s="4" t="s">
         <v>63</v>
@@ -4750,7 +4436,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="4" t="s">
-        <v>241</v>
+        <v>0</v>
       </c>
       <c r="B321" s="4" t="s">
         <v>63</v>
@@ -4758,7 +4444,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="4" t="s">
-        <v>321</v>
+        <v>14</v>
       </c>
       <c r="B322" s="4" t="s">
         <v>63</v>
@@ -4766,191 +4452,191 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="4" t="s">
-        <v>336</v>
+        <v>16</v>
       </c>
       <c r="B323" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A324" s="2" t="s">
-        <v>65</v>
+      <c r="A324" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="B324" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A325" s="2" t="s">
-        <v>1</v>
+      <c r="A325" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="B325" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A326" s="2" t="s">
-        <v>19</v>
+      <c r="A326" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="B326" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A327" s="2" t="s">
-        <v>42</v>
+      <c r="A327" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="B327" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A328" s="2" t="s">
-        <v>68</v>
+      <c r="A328" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="B328" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A329" s="2" t="s">
-        <v>104</v>
+      <c r="A329" s="18" t="s">
+        <v>407</v>
       </c>
       <c r="B329" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A330" s="2" t="s">
-        <v>76</v>
+      <c r="A330" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="B330" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A331" s="2" t="s">
-        <v>139</v>
+      <c r="A331" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="B331" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A332" s="2" t="s">
-        <v>102</v>
+      <c r="A332" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="B332" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A333" s="2" t="s">
-        <v>110</v>
+      <c r="A333" s="4" t="s">
+        <v>207</v>
       </c>
       <c r="B333" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A334" s="2" t="s">
-        <v>116</v>
+      <c r="A334" s="4" t="s">
+        <v>361</v>
       </c>
       <c r="B334" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A335" s="2" t="s">
-        <v>124</v>
+      <c r="A335" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="B335" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A336" s="2" t="s">
-        <v>188</v>
+      <c r="A336" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="B336" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A337" s="2" t="s">
-        <v>178</v>
+      <c r="A337" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="B337" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A338" s="2" t="s">
-        <v>146</v>
+      <c r="A338" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="B338" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A339" s="2" t="s">
-        <v>158</v>
+      <c r="A339" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="B339" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A340" s="2" t="s">
-        <v>167</v>
+      <c r="A340" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="B340" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A341" s="2" t="s">
-        <v>175</v>
+      <c r="A341" s="4" t="s">
+        <v>202</v>
       </c>
       <c r="B341" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A342" s="2" t="s">
-        <v>205</v>
+      <c r="A342" s="4" t="s">
+        <v>211</v>
       </c>
       <c r="B342" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A343" s="2" t="s">
-        <v>223</v>
+      <c r="A343" s="4" t="s">
+        <v>262</v>
       </c>
       <c r="B343" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A344" s="2" t="s">
-        <v>242</v>
+      <c r="A344" s="4" t="s">
+        <v>241</v>
       </c>
       <c r="B344" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A345" s="2" t="s">
-        <v>318</v>
+      <c r="A345" s="4" t="s">
+        <v>321</v>
       </c>
       <c r="B345" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A346" s="2" t="s">
-        <v>340</v>
+      <c r="A346" s="4" t="s">
+        <v>336</v>
       </c>
       <c r="B346" s="4" t="s">
         <v>63</v>
@@ -4958,207 +4644,463 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="B347" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B348" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A349" s="2" t="s">
+      <c r="B375" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B349" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A350" s="2" t="s">
+      <c r="B376" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B350" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A351" s="2" t="s">
+      <c r="B377" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B351" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A352" s="2" t="s">
+      <c r="B378" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B352" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A353" s="10" t="s">
+      <c r="B379" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B353" s="10" t="s">
+      <c r="B380" s="10" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A354" s="10" t="s">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="B381" s="10" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="B382" s="10" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="B383" s="10" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="B384" s="10" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="B385" s="10" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B354" s="10" t="s">
+      <c r="B386" s="10" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A355" s="10" t="s">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B355" s="10" t="s">
+      <c r="B387" s="10" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A356" s="10" t="s">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B356" s="10" t="s">
+      <c r="B388" s="10" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A357" s="10" t="s">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B357" s="10" t="s">
+      <c r="B389" s="10" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A358" s="10" t="s">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="B358" s="10" t="s">
+      <c r="B390" s="10" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A359" s="10" t="s">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="B359" s="10" t="s">
+      <c r="B391" s="10" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A360" s="10" t="s">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="B360" s="10" t="s">
+      <c r="B392" s="10" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A361" s="10" t="s">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="B361" s="10" t="s">
+      <c r="B393" s="10" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A362" s="10" t="s">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="B362" s="10" t="s">
+      <c r="B394" s="10" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A363" s="10" t="s">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="B363" s="10" t="s">
+      <c r="B395" s="10" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A364" s="10" t="s">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="B364" s="10" t="s">
+      <c r="B396" s="10" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A365" s="10" t="s">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="B365" s="10" t="s">
+      <c r="B397" s="10" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A366" s="10" t="s">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="B366" s="10" t="s">
+      <c r="B398" s="10" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A367" s="10" t="s">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="B367" s="10" t="s">
+      <c r="B399" s="10" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A368" s="10" t="s">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="B368" s="10" t="s">
+      <c r="B400" s="10" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A369" s="10" t="s">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B369" s="10" t="s">
+      <c r="B401" s="10" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A370" s="10" t="s">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="B370" s="10" t="s">
+      <c r="B402" s="10" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A371" s="10" t="s">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="B371" s="10" t="s">
+      <c r="B403" s="10" t="s">
         <v>376</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A298:A371">
-    <sortCondition sortBy="cellColor" ref="A298:A371" dxfId="68"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:A14">
+    <sortCondition sortBy="cellColor" ref="A13:A14" dxfId="12"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
